--- a/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -17,13 +17,14 @@
     <sheet name="5_(b)_b4a9a065-b563-" sheetId="8" r:id="rId8"/>
     <sheet name="5_(b)_9e18a0bb-55d8-" sheetId="9" r:id="rId9"/>
     <sheet name="6__2d930aad-9df8-372" sheetId="10" r:id="rId10"/>
+    <sheet name="7__c0904331-c00d-39b" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="76">
   <si>
     <t>rows</t>
   </si>
@@ -245,6 +246,12 @@
   </si>
   <si>
     <t>in calculating taxable income: Income tax expense</t>
+  </si>
+  <si>
+    <t>None Cash at bank and in hand</t>
+  </si>
+  <si>
+    <t>None Term deposit</t>
   </si>
 </sst>
 </file>
@@ -1112,6 +1119,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>14502614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>2368905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>16871519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>13525659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>

--- a/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -12,19 +12,26 @@
     <sheet name="11__3d7aa904-7abf-34" sheetId="3" r:id="rId3"/>
     <sheet name="13__72335360-0cc6-3c" sheetId="4" r:id="rId4"/>
     <sheet name="13__d7988c4f-d09c-3b" sheetId="5" r:id="rId5"/>
-    <sheet name="4__6a10f31e-b6a9-313" sheetId="6" r:id="rId6"/>
-    <sheet name="5_(a)_6a10f31e-b6a9-" sheetId="7" r:id="rId7"/>
-    <sheet name="5_(b)_b4a9a065-b563-" sheetId="8" r:id="rId8"/>
-    <sheet name="5_(b)_9e18a0bb-55d8-" sheetId="9" r:id="rId9"/>
-    <sheet name="6__2d930aad-9df8-372" sheetId="10" r:id="rId10"/>
-    <sheet name="7__c0904331-c00d-39b" sheetId="11" r:id="rId11"/>
+    <sheet name="14__a6ee8afd-b658-39" sheetId="6" r:id="rId6"/>
+    <sheet name="14__656e2f63-0153-36" sheetId="7" r:id="rId7"/>
+    <sheet name="15__a6ee8afd-b658-39" sheetId="8" r:id="rId8"/>
+    <sheet name="17__b4a9a065-b563-3c" sheetId="9" r:id="rId9"/>
+    <sheet name="18_(b)_9e18a0bb-55d8" sheetId="10" r:id="rId10"/>
+    <sheet name="18_(b)_f4ef0d64-df7d" sheetId="11" r:id="rId11"/>
+    <sheet name="18_(b)_a82f3cbc-2a70" sheetId="12" r:id="rId12"/>
+    <sheet name="4__6a10f31e-b6a9-313" sheetId="13" r:id="rId13"/>
+    <sheet name="5_(a)_6a10f31e-b6a9-" sheetId="14" r:id="rId14"/>
+    <sheet name="5_(b)_b4a9a065-b563-" sheetId="15" r:id="rId15"/>
+    <sheet name="5_(b)_9e18a0bb-55d8-" sheetId="16" r:id="rId16"/>
+    <sheet name="6__2d930aad-9df8-372" sheetId="17" r:id="rId17"/>
+    <sheet name="7__c0904331-c00d-39b" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="103">
   <si>
     <t>rows</t>
   </si>
@@ -38,6 +45,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Raw materials and stores</t>
   </si>
   <si>
@@ -47,12 +57,18 @@
     <t>None Total</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>None Accrued interest receivable</t>
   </si>
   <si>
     <t>None Other receivables</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>None Net book amount</t>
   </si>
   <si>
@@ -83,19 +99,25 @@
     <t>Furniture, fittings and equipment $ Total Furniture, fittings and equipment $ 109,203 (98,455) 109,203 (98,455)</t>
   </si>
   <si>
-    <t>Total Employee benefits</t>
-  </si>
-  <si>
-    <t>Total Periodic accruals</t>
-  </si>
-  <si>
-    <t>Total 38163</t>
-  </si>
-  <si>
-    <t>Total Set-off of deferred tax liabilities pursuant to set-off provisions</t>
-  </si>
-  <si>
-    <t>Total Net deferred tax assets</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>None Employee benefits</t>
+  </si>
+  <si>
+    <t>None Periodic accruals</t>
+  </si>
+  <si>
+    <t>None 38163</t>
+  </si>
+  <si>
+    <t>None Set-off of deferred tax liabilities pursuant to set-off provisions</t>
+  </si>
+  <si>
+    <t>None Net deferred tax assets</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>None At 1 April 2021</t>
@@ -125,6 +147,69 @@
     <t>Total $ Total $</t>
   </si>
   <si>
+    <t>None Financial liabilities measured at amortised cost</t>
+  </si>
+  <si>
+    <t>None Non-financial liabilities</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>None Trade payables</t>
+  </si>
+  <si>
+    <t>None Accrued expenses</t>
+  </si>
+  <si>
+    <t>None Other payables</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>None Employee benefits annual leave</t>
+  </si>
+  <si>
+    <t>None Employee benefits - long service leave</t>
+  </si>
+  <si>
+    <t>None Total employee benefit obligations</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>(a) Share capital 2023 Shares</t>
+  </si>
+  <si>
+    <t>Ordinary shares Fully paid 25,467,389</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>None Balance 1 April</t>
+  </si>
+  <si>
+    <t>None Net profit for the year</t>
+  </si>
+  <si>
+    <t>None Balance 31 March</t>
+  </si>
+  <si>
+    <t>Franked dividends Total</t>
+  </si>
+  <si>
+    <t>Franked dividends Franking credits available for subsequent reporting periods based on a tax rate of 30.0% (2022 30.0%)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>None Total remuneration for audit and other assurance services</t>
+  </si>
+  <si>
     <t>None Interest income</t>
   </si>
   <si>
@@ -134,12 +219,15 @@
     <t>None Other income</t>
   </si>
   <si>
-    <t>$</t>
+    <t>4</t>
   </si>
   <si>
     <t>None Net foreign exchange losses</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>The balance comprises temporary differences attributable to: Prepaid insurance nan</t>
   </si>
   <si>
@@ -155,7 +243,7 @@
     <t>The balance comprises temporary differences attributable to: Set-off of deferred tax assets pursuant to set-off provisions nan</t>
   </si>
   <si>
-    <t>Total Trade accounts receivable Movements $ At 1 April 2021 3,796 Accrued interest receivable $ (278)</t>
+    <t>Net deferred tax liabilities Trade accounts receivable Movements $ At 1 April 2021 3,796 Accrued interest receivable $ (278)</t>
   </si>
   <si>
     <t>Charged/(credited) -profit or loss (3,782) 706</t>
@@ -203,12 +291,6 @@
     <t>Movements in retained earnings were as follows: Balance 31 March</t>
   </si>
   <si>
-    <t>Franked dividends Total</t>
-  </si>
-  <si>
-    <t>Franked dividends Franking credits available for subsequent reporting periods based on a tax rate of 30.0% (2022 30.0%)</t>
-  </si>
-  <si>
     <t>Current tax Current tax on profits for the year</t>
   </si>
   <si>
@@ -248,10 +330,16 @@
     <t>in calculating taxable income: Income tax expense</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>None Cash at bank and in hand</t>
   </si>
   <si>
     <t>None Term deposit</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -609,13 +697,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,10 +716,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -639,10 +730,13 @@
       <c r="D2">
         <v>15722792</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -650,10 +744,13 @@
       <c r="D3">
         <v>5258061</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -661,10 +758,13 @@
       <c r="D4">
         <v>20980853</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -672,10 +772,13 @@
       <c r="D5">
         <v>19419118</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -683,16 +786,22 @@
       <c r="D6">
         <v>2035632</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>21454750</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -702,13 +811,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,397 +830,212 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>400103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7262779</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>400103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1459220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>-3696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8721999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2023</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>-851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>399252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1631695</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>6217272</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1045507</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D10">
-        <v>1858472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>7262779</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D11">
-        <v>557542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2022</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D12">
-        <v>35178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D13">
-        <v>-50057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>2023</v>
-      </c>
-      <c r="D14">
-        <v>-143411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>2023</v>
-      </c>
-      <c r="D15">
-        <v>399252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>2022</v>
-      </c>
-      <c r="D16">
-        <v>261394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>2022</v>
-      </c>
-      <c r="D17">
-        <v>261394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>2022</v>
-      </c>
-      <c r="D18">
-        <v>-6236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>2022</v>
-      </c>
-      <c r="D19">
-        <v>-2461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20">
-        <v>2022</v>
-      </c>
-      <c r="D20">
-        <v>-8697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21">
-        <v>2022</v>
-      </c>
-      <c r="D21">
-        <v>252697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22">
-        <v>2022</v>
-      </c>
-      <c r="D22">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23">
-        <v>2022</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>2022</v>
-      </c>
-      <c r="D24">
-        <v>1306901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>2022</v>
-      </c>
-      <c r="D25">
-        <v>392070</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26">
-        <v>2022</v>
-      </c>
-      <c r="D26">
-        <v>17648</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>2022</v>
-      </c>
-      <c r="D27">
-        <v>-61637</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28">
-        <v>2022</v>
-      </c>
-      <c r="D28">
-        <v>-95384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29">
-        <v>2022</v>
-      </c>
-      <c r="D29">
-        <v>252697</v>
+        <v>1775581</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1121,13 +1045,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,10 +1076,1867 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>37105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>37105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10">
+        <v>34680</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>18000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>18000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>2725</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>2725</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>57830</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>57475</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>298944</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>96756</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>453175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>3746</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>665310</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>28313</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>697369</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>-36252</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>-36252</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>-67214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>-67214</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>3533</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>3902</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>-3902</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>615</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>615</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11">
+        <v>615</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>74</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12">
+        <v>-246</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>2023</v>
+      </c>
+      <c r="D13">
+        <v>369</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>2023</v>
+      </c>
+      <c r="D14">
+        <v>2023</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>2023</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>2023</v>
+      </c>
+      <c r="D16">
+        <v>25467389</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>615</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>428</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20">
+        <v>1057</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21">
+        <v>-1057</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>-2461</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25">
+        <v>1057</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
+      </c>
+      <c r="D26">
+        <v>1057</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
+      </c>
+      <c r="D27">
+        <v>2845</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="D28">
+        <v>3902</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29">
+        <v>2022</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31">
+        <v>2022</v>
+      </c>
+      <c r="D31">
+        <v>25467389</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>1945682</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>-1255697</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>3201379</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>1945682</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>7262779</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>1459220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>8721999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11">
+        <v>2023</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>2023</v>
+      </c>
+      <c r="D13">
+        <v>1631695</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>-1255697</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>-1673797</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>418100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>-1255697</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20">
+        <v>6217272</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21">
+        <v>1045507</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22">
+        <v>7262779</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25">
+        <v>1775581</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>400103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>400103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>-3696</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>2845</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>-851</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>399252</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>1858472</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11">
+        <v>557542</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12">
+        <v>35178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>2023</v>
+      </c>
+      <c r="D13">
+        <v>-50057</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>2023</v>
+      </c>
+      <c r="D14">
+        <v>-143411</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>2023</v>
+      </c>
+      <c r="D15">
+        <v>399252</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>261394</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>261394</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>-6236</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>-2461</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20">
+        <v>-8697</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21">
+        <v>252697</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>1306901</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25">
+        <v>392070</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
+      </c>
+      <c r="D26">
+        <v>17648</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
+      </c>
+      <c r="D27">
+        <v>-61637</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="D28">
+        <v>-95384</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>2022</v>
+      </c>
+      <c r="D29">
+        <v>252697</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>100</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1151,10 +2944,13 @@
       <c r="D2">
         <v>14502614</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1162,10 +2958,13 @@
       <c r="D3">
         <v>2368905</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1173,10 +2972,13 @@
       <c r="D4">
         <v>16871519</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1184,10 +2986,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1195,16 +3000,22 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>13525659</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1214,13 +3025,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,10 +3044,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1244,10 +3058,13 @@
       <c r="D2">
         <v>10449</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1255,10 +3072,13 @@
       <c r="D3">
         <v>2062838</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1266,10 +3086,13 @@
       <c r="D4">
         <v>2073287</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1277,10 +3100,13 @@
       <c r="D5">
         <v>1427</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1288,16 +3114,22 @@
       <c r="D6">
         <v>1357050</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>1358477</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1307,13 +3139,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,181 +3158,232 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>10748</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>10748</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>4876</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>-7055</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>8569</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>111210</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>-102641</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>8569</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>10748</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>10748</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>4876</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>-7055</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>8569</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>111210</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>-102641</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>8569</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1510,13 +3393,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,10 +3412,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1540,10 +3426,13 @@
       <c r="D2">
         <v>16458</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -1551,10 +3440,13 @@
       <c r="D3">
         <v>21705</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1562,10 +3454,13 @@
       <c r="D4">
         <v>34467</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1573,16 +3468,22 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
       <c r="D6">
         <v>34261</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1592,13 +3493,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,13 +3512,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1625,13 +3529,16 @@
       <c r="D2">
         <v>11599</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1639,13 +3546,16 @@
       <c r="D3">
         <v>2846</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1653,13 +3563,16 @@
       <c r="D4">
         <v>14445</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1667,13 +3580,16 @@
       <c r="D5">
         <v>14445</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1681,13 +3597,16 @@
       <c r="D6">
         <v>2013</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1695,13 +3614,16 @@
       <c r="D7">
         <v>16458</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1709,13 +3631,16 @@
       <c r="D8">
         <v>16632</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1723,13 +3648,16 @@
       <c r="D9">
         <v>3390</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1737,13 +3665,16 @@
       <c r="D10">
         <v>20022</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1751,13 +3682,16 @@
       <c r="D11">
         <v>20022</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1765,13 +3699,16 @@
       <c r="D12">
         <v>1683</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1779,13 +3716,16 @@
       <c r="D13">
         <v>21705</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1793,13 +3733,16 @@
       <c r="D14">
         <v>28231</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1807,13 +3750,16 @@
       <c r="D15">
         <v>6236</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1821,13 +3767,16 @@
       <c r="D16">
         <v>34467</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -1835,13 +3784,16 @@
       <c r="D17">
         <v>34467</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1849,19 +3801,25 @@
       <c r="D18">
         <v>3696</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>2023</v>
       </c>
       <c r="D19">
         <v>38163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1871,13 +3829,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,117 +3848,92 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>57475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9370427</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>298944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>131964</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>96756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9502391</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D5">
-        <v>453175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9546820</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
       <c r="D6">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>89655</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
-        <v>665310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>2022</v>
-      </c>
-      <c r="D8">
-        <v>28313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>2022</v>
-      </c>
-      <c r="D9">
-        <v>697369</v>
+        <v>9636475</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2010,13 +3943,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,61 +3962,144 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>-36252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9004456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>-36252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>131964</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D4">
-        <v>-67214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>365971</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D5">
-        <v>-67214</v>
+        <v>9502391</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>9389282</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>89655</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>157538</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9">
+        <v>9636475</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2093,13 +4109,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2112,335 +4128,110 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>21675</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>33187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>54862</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D5">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>17110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D6">
-        <v>-3902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>31040</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8">
-        <v>2023</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9">
-        <v>2023</v>
-      </c>
-      <c r="D9">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>2023</v>
-      </c>
-      <c r="D10">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11">
-        <v>2023</v>
-      </c>
-      <c r="D11">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12">
-        <v>2023</v>
-      </c>
-      <c r="D12">
-        <v>-246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+        <v>48150</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
-      </c>
-      <c r="C13">
-        <v>2023</v>
-      </c>
-      <c r="D13">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>2023</v>
-      </c>
-      <c r="D14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15">
-        <v>2023</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>2023</v>
-      </c>
-      <c r="D16">
-        <v>25467389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17">
-        <v>2022</v>
-      </c>
-      <c r="D17">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18">
-        <v>2022</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>2022</v>
-      </c>
-      <c r="D19">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <v>2022</v>
-      </c>
-      <c r="D20">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>2022</v>
-      </c>
-      <c r="D21">
-        <v>-1057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>2022</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>2022</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24">
-        <v>2022</v>
-      </c>
-      <c r="D24">
-        <v>-2461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25">
-        <v>2022</v>
-      </c>
-      <c r="D25">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26">
-        <v>2022</v>
-      </c>
-      <c r="D26">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27">
-        <v>2022</v>
-      </c>
-      <c r="D27">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28">
-        <v>2022</v>
-      </c>
-      <c r="D28">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29">
-        <v>2022</v>
-      </c>
-      <c r="D29">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30">
-        <v>2022</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31">
-        <v>2022</v>
-      </c>
-      <c r="D31">
-        <v>25467389</v>
       </c>
     </row>
   </sheetData>
@@ -2450,13 +4241,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2469,269 +4260,134 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="C2">
-        <v>2023</v>
-      </c>
-      <c r="D2">
-        <v>1945682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>-1255697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>3201379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>25467389</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D5">
-        <v>1945682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2023</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D6">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>25467389</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D8">
-        <v>7262779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2022</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C9">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D9">
-        <v>1459220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D10">
-        <v>8721999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>2023</v>
-      </c>
-      <c r="D11">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12">
-        <v>2023</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13">
-        <v>2023</v>
-      </c>
-      <c r="D13">
-        <v>1631695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+        <v>25467389</v>
+      </c>
+      <c r="E10" t="s">
         <v>51</v>
-      </c>
-      <c r="C14">
-        <v>2022</v>
-      </c>
-      <c r="D14">
-        <v>-1255697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15">
-        <v>2022</v>
-      </c>
-      <c r="D15">
-        <v>-1673797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16">
-        <v>2022</v>
-      </c>
-      <c r="D16">
-        <v>418100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17">
-        <v>2022</v>
-      </c>
-      <c r="D17">
-        <v>-1255697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>2022</v>
-      </c>
-      <c r="D18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19">
-        <v>2022</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20">
-        <v>2022</v>
-      </c>
-      <c r="D20">
-        <v>6217272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21">
-        <v>2022</v>
-      </c>
-      <c r="D21">
-        <v>1045507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22">
-        <v>2022</v>
-      </c>
-      <c r="D22">
-        <v>7262779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23">
-        <v>2022</v>
-      </c>
-      <c r="D23">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24">
-        <v>2022</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25">
-        <v>2022</v>
-      </c>
-      <c r="D25">
-        <v>1775581</v>
       </c>
     </row>
   </sheetData>
